--- a/Proyecto/Proyecto.xlsx
+++ b/Proyecto/Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/men19673_uvg_edu_gt/Documents/University/Semesters/Fall 2020/Electronica Digital/Electronica-Digital/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1425" documentId="8_{A883D2E2-4977-4FA5-9E50-AF0E3CCDAA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84D89434-4949-4C1C-8BEF-A0D433FFC5F0}"/>
+  <xr:revisionPtr revIDLastSave="1426" documentId="8_{A883D2E2-4977-4FA5-9E50-AF0E3CCDAA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49956B32-7214-447A-9CE9-4B5A1A39E5FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{039ACA13-6CBB-439B-A714-A43562AF9E6F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="73">
   <si>
     <t>Codificación</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>LCD0 = SA3' SA1 SA0  + SA3 SA2' SA0'  + SA3 SA1' SA0'  + SA3' SA1 EL' ME1' ME0'  + SA3' SA1 LP ME1' ME0'  + SA3' SA0' PF0 EL LP' ME1' ME0' ;</t>
+  </si>
+  <si>
+    <t>MP = SA3 SA2'  + SA3 SA1'  + SA3 ME1'  + SA0' ME1' ME0  + SA2' SA0' PF1 EL LP' ME1'  + SA2 SA0' PF1' EL LP' ME1'  + SA1' SA0' PF0 EL LP' ME1'  + SA1 SA0' PF0' EL LP' ME1' ;</t>
   </si>
 </sst>
 </file>
@@ -6526,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC3696-9E09-40D4-9143-A5C4C36265DC}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="154" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6599,6 +6602,9 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
